--- a/files/customer-list-small-test.xlsx
+++ b/files/customer-list-small-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\Documents\GitHub\wna-custom-plugin-scripts\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA12CB-BDAB-41A0-8120-767C2B7FEFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C04051-9C05-4AB3-B9F6-E9E701FA73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15030" yWindow="195" windowWidth="16860" windowHeight="15360" xr2:uid="{B89FC1A1-576E-4254-9A7D-1BD13D88F919}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
         <v>50312</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>39</v>
